--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -40,39 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -85,79 +85,79 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>share</t>
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8082191780821918</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +814,13 @@
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5343915343915344</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8198433420365535</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L8">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5254237288135594</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5174418604651163</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C10">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D10">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4832214765100671</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7924528301886793</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3733333333333334</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7659574468085106</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2658730158730159</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.75625</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.128686327077748</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1264,13 @@
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7394366197183099</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L16">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1290,13 +1290,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1316,13 +1316,13 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1342,13 +1342,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1368,13 +1368,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.675</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1394,13 +1394,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1420,13 +1420,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1446,13 +1446,13 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1472,13 +1472,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1498,13 +1498,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.602510460251046</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L25">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M25">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1524,13 +1524,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5728813559322034</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L26">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>126</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1550,13 +1550,13 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5638297872340425</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1576,13 +1576,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.4857142857142857</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1602,13 +1602,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.449438202247191</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
